--- a/assets/Data Collections/Restraunts.xlsx
+++ b/assets/Data Collections/Restraunts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TrekBuddy\assets\Data Collections\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\TrekBuddy\assets\Data Collections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AF8A07-1A9E-4D9F-8AC5-DB14FF102965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEC47A5-D468-4404-8F10-A8D17723BCF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Restaurants" sheetId="5" r:id="rId1"/>
@@ -19,12 +19,23 @@
     <sheet name="Chats" sheetId="4" r:id="rId4"/>
     <sheet name="StreetFood" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="187">
   <si>
     <t>Name</t>
   </si>
@@ -86,146 +97,512 @@
     <t>Price Level</t>
   </si>
   <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>Luxury</t>
   </si>
   <si>
-    <t>Rooftop, Seafoods, Bar, Beach View, Family Restaurant</t>
-  </si>
-  <si>
-    <t>Popular beachside seafood restaurant</t>
-  </si>
-  <si>
-    <t>Prawn Fry, Fish BBQ</t>
-  </si>
-  <si>
-    <t>4.6</t>
-  </si>
-  <si>
-    <t>₹₹₹</t>
-  </si>
-  <si>
-    <t>9876543210</t>
-  </si>
-  <si>
-    <t>https://goo.gl/maps/example</t>
+    <t>Kids Friendly</t>
+  </si>
+  <si>
+    <t>Pet Friendly</t>
+  </si>
+  <si>
+    <t>Air Conditioned</t>
+  </si>
+  <si>
+    <t>Parking Available</t>
+  </si>
+  <si>
+    <t>Buffet Available</t>
+  </si>
+  <si>
+    <t>Quick Bites</t>
+  </si>
+  <si>
+    <t>Beach View</t>
+  </si>
+  <si>
+    <t>Garden Seating</t>
+  </si>
+  <si>
+    <t>Live Music</t>
+  </si>
+  <si>
+    <t>Budget Friendly</t>
+  </si>
+  <si>
+    <t>Romantic</t>
+  </si>
+  <si>
+    <t>Seafood</t>
+  </si>
+  <si>
+    <t>Family Friendly</t>
+  </si>
+  <si>
+    <t>Bar</t>
+  </si>
+  <si>
+    <t>Cafe</t>
+  </si>
+  <si>
+    <t>Rooftop</t>
+  </si>
+  <si>
+    <t>Tags (Select multiple)</t>
+  </si>
+  <si>
+    <t>Popular Dishes</t>
+  </si>
+  <si>
+    <t>Weekend_Timing</t>
+  </si>
+  <si>
+    <t>Closing_Time</t>
+  </si>
+  <si>
+    <t>Opening_Time</t>
+  </si>
+  <si>
+    <t>Contact Number</t>
+  </si>
+  <si>
+    <t>Veg/NonVeg</t>
+  </si>
+  <si>
+    <t>Main Cuisine</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu card </t>
+  </si>
+  <si>
+    <t>Restaurant Name</t>
+  </si>
+  <si>
+    <t>Image url</t>
+  </si>
+  <si>
+    <t>Villa Shanti</t>
+  </si>
+  <si>
+    <t>A la carte</t>
+  </si>
+  <si>
+    <t>Casual Dining</t>
+  </si>
+  <si>
+    <t>Continental</t>
+  </si>
+  <si>
+    <t>Both</t>
   </si>
   <si>
     <t>White Town</t>
   </si>
   <si>
-    <t>NonVeg</t>
-  </si>
-  <si>
-    <t>Seafood &amp; Indian</t>
-  </si>
-  <si>
-    <t>Seafood Restaurant</t>
-  </si>
-  <si>
-    <t>Bay of Buds</t>
-  </si>
-  <si>
-    <t>RES001</t>
-  </si>
-  <si>
-    <t>Kids Friendly</t>
-  </si>
-  <si>
-    <t>Pet Friendly</t>
-  </si>
-  <si>
-    <t>Air Conditioned</t>
-  </si>
-  <si>
-    <t>Parking Available</t>
-  </si>
-  <si>
-    <t>Buffet Available</t>
-  </si>
-  <si>
-    <t>Quick Bites</t>
-  </si>
-  <si>
-    <t>Beach View</t>
-  </si>
-  <si>
-    <t>Garden Seating</t>
-  </si>
-  <si>
-    <t>Live Music</t>
-  </si>
-  <si>
-    <t>Budget Friendly</t>
-  </si>
-  <si>
-    <t>Romantic</t>
-  </si>
-  <si>
-    <t>Seafood</t>
-  </si>
-  <si>
-    <t>Family Friendly</t>
-  </si>
-  <si>
-    <t>Bar</t>
-  </si>
-  <si>
-    <t>Cafe</t>
-  </si>
-  <si>
-    <t>Rooftop</t>
-  </si>
-  <si>
-    <t>Tags (Select multiple)</t>
-  </si>
-  <si>
-    <t>Popular Dishes</t>
-  </si>
-  <si>
-    <t>Weekend_Timing</t>
-  </si>
-  <si>
-    <t>Closing_Time</t>
-  </si>
-  <si>
-    <t>Opening_Time</t>
-  </si>
-  <si>
-    <t>Contact Number</t>
-  </si>
-  <si>
-    <t>Veg/NonVeg</t>
-  </si>
-  <si>
-    <t>Main Cuisine</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu card </t>
-  </si>
-  <si>
-    <t>Restaurant Name</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Image</t>
+    <t>https://maps.google.com/?q=Villa+Shanti+Puducherry</t>
+  </si>
+  <si>
+    <t>12:00 PM</t>
+  </si>
+  <si>
+    <t>10:30 PM</t>
+  </si>
+  <si>
+    <t>Same</t>
+  </si>
+  <si>
+    <t>800-1500</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>Pasta, Seafood</t>
+  </si>
+  <si>
+    <t>Heritage restaurant</t>
+  </si>
+  <si>
+    <t>Heritage,Continental</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Theevu Plage</t>
+  </si>
+  <si>
+    <t>Fine Dining</t>
+  </si>
+  <si>
+    <t>Non-Veg</t>
+  </si>
+  <si>
+    <t>Promenade</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Theevu+Plage</t>
+  </si>
+  <si>
+    <t>12:30 PM</t>
+  </si>
+  <si>
+    <t>10:00 PM</t>
+  </si>
+  <si>
+    <t>Extended</t>
+  </si>
+  <si>
+    <t>1200-2000</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>Grilled Fish</t>
+  </si>
+  <si>
+    <t>Beachside dining</t>
+  </si>
+  <si>
+    <t>Beach,Seafood</t>
+  </si>
+  <si>
+    <t>Coromandel Cafe</t>
+  </si>
+  <si>
+    <t>Buffet</t>
+  </si>
+  <si>
+    <t>Hotel Dining</t>
+  </si>
+  <si>
+    <t>Multi-cuisine</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Coromandel+Cafe+Puducherry</t>
+  </si>
+  <si>
+    <t>7:00 AM</t>
+  </si>
+  <si>
+    <t>900-1800</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>Hotel restaurant</t>
+  </si>
+  <si>
+    <t>Buffet,Hotel</t>
+  </si>
+  <si>
+    <t>Kottakuppam</t>
+  </si>
+  <si>
+    <t>Cafe des Arts</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Cafe+des+Arts</t>
+  </si>
+  <si>
+    <t>8:30 AM-10 PM</t>
+  </si>
+  <si>
+    <t>300-700</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Croissants</t>
+  </si>
+  <si>
+    <t>Heritage,Cafe</t>
+  </si>
+  <si>
+    <t>Artistic cafe</t>
+  </si>
+  <si>
+    <t>Bread &amp; Chocolate</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Bread+and+Chocolate</t>
+  </si>
+  <si>
+    <t>9 AM-9 PM</t>
+  </si>
+  <si>
+    <t>250-600</t>
+  </si>
+  <si>
+    <t>Bakery Cafe</t>
+  </si>
+  <si>
+    <t>Chocolate Tart</t>
+  </si>
+  <si>
+    <t>Cafe,Bakery</t>
+  </si>
+  <si>
+    <t>Cozy cafe</t>
+  </si>
+  <si>
+    <t>Zuka Choco-la</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Zuka+Chocolates</t>
+  </si>
+  <si>
+    <t>10 AM-9 PM</t>
+  </si>
+  <si>
+    <t>300-800</t>
+  </si>
+  <si>
+    <t>Dessert Cafe</t>
+  </si>
+  <si>
+    <t>Hot Chocolate</t>
+  </si>
+  <si>
+    <t>Desserts,Cafe</t>
+  </si>
+  <si>
+    <t>Chocolate specialty</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/h6NaA6yYzmnfcztLA</t>
+  </si>
+  <si>
+    <t>MG Road</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/7shg2zJBvYYxcptW9</t>
+  </si>
+  <si>
+    <t>81221 30066</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/A3pSvmbAEYJ4KUHY7</t>
+  </si>
+  <si>
+    <t>Hot Breads</t>
+  </si>
+  <si>
+    <t>Mission Street</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Hot+Breads+Puducherry</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>Pastries</t>
+  </si>
+  <si>
+    <t>50-200</t>
+  </si>
+  <si>
+    <t>Bakery</t>
+  </si>
+  <si>
+    <t>Popular bakery</t>
+  </si>
+  <si>
+    <t>Baker Street</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Baker+Street+Puducherry</t>
+  </si>
+  <si>
+    <t>Brownies</t>
+  </si>
+  <si>
+    <t>80-250</t>
+  </si>
+  <si>
+    <t>Bakery,Cafe</t>
+  </si>
+  <si>
+    <t>French bakery</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/Tderr2grrR4fPACn7</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/uAwXTS1GnyyCLsCz5</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/ASWRZ1FSfNYyBweV9</t>
+  </si>
+  <si>
+    <t>Auroville Rd, Kuilapalayam</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/vx7JkU8CSGg2yavn7</t>
+  </si>
+  <si>
+    <t>Ashok Chaat</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Ashok+Chaat</t>
+  </si>
+  <si>
+    <t>Pani Puri</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>4 PM</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Famous chaat stall</t>
+  </si>
+  <si>
+    <t>Balaji Chaat</t>
+  </si>
+  <si>
+    <t>Lawspet</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Balaji+Chaat+Puducherry</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>Dahi Puri</t>
+  </si>
+  <si>
+    <t>5 PM</t>
+  </si>
+  <si>
+    <t>Local favorite</t>
+  </si>
+  <si>
+    <t>Gupta Chaat</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Gupta+Chaat+Puducherry</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>Bhel Puri</t>
+  </si>
+  <si>
+    <t>4:30 PM</t>
+  </si>
+  <si>
+    <t>Budget chaat</t>
+  </si>
+  <si>
+    <t>Food Type</t>
+  </si>
+  <si>
+    <t>Best Time</t>
+  </si>
+  <si>
+    <t>Seating Available</t>
+  </si>
+  <si>
+    <t>Nearby Landmark</t>
+  </si>
+  <si>
+    <t>Rock Beach Stalls</t>
+  </si>
+  <si>
+    <t>Snacks</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Rock+Beach</t>
+  </si>
+  <si>
+    <t>Bajji, Corn</t>
+  </si>
+  <si>
+    <t>Evening</t>
+  </si>
+  <si>
+    <t>20-80</t>
+  </si>
+  <si>
+    <t>Veg</t>
+  </si>
+  <si>
+    <t>Gandhi Statue</t>
+  </si>
+  <si>
+    <t>Evening food hub</t>
+  </si>
+  <si>
+    <t>Sunday Market Food</t>
+  </si>
+  <si>
+    <t>Mixed</t>
+  </si>
+  <si>
+    <t>Heritage Town</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Sunday+Market+Puducherry</t>
+  </si>
+  <si>
+    <t>Fried Rice</t>
+  </si>
+  <si>
+    <t>50-120</t>
+  </si>
+  <si>
+    <t>Market</t>
+  </si>
+  <si>
+    <t>Weekend food stalls</t>
+  </si>
+  <si>
+    <t>Lawspet Evening Stalls</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Lawspet+Street+Food</t>
+  </si>
+  <si>
+    <t>Vada,Bajji</t>
+  </si>
+  <si>
+    <t>20-60</t>
+  </si>
+  <si>
+    <t>Lawspet Signal</t>
+  </si>
+  <si>
+    <t>Local snack stalls</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +622,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -279,10 +664,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -290,8 +676,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -592,235 +982,490 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863E1B1F-3B58-4D49-ABB1-F6CA5DE4C304}">
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:AG5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="15" width="25.7109375" customWidth="1"/>
-    <col min="16" max="16" width="38" customWidth="1"/>
-    <col min="17" max="17" width="50.42578125" customWidth="1"/>
-    <col min="18" max="34" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="50.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" customWidth="1"/>
+    <col min="13" max="13" width="8" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" customWidth="1"/>
+    <col min="15" max="15" width="16.88671875" customWidth="1"/>
+    <col min="16" max="16" width="20.109375" customWidth="1"/>
+    <col min="17" max="17" width="9.33203125" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" customWidth="1"/>
+    <col min="19" max="19" width="5.109375" customWidth="1"/>
+    <col min="20" max="20" width="13.21875" customWidth="1"/>
+    <col min="21" max="21" width="9.44140625" customWidth="1"/>
+    <col min="22" max="22" width="10" customWidth="1"/>
+    <col min="23" max="23" width="7.6640625" customWidth="1"/>
+    <col min="24" max="24" width="14.109375" customWidth="1"/>
+    <col min="25" max="25" width="11.33203125" customWidth="1"/>
+    <col min="26" max="26" width="13.88671875" customWidth="1"/>
+    <col min="27" max="27" width="11.109375" customWidth="1"/>
+    <col min="28" max="28" width="10.77734375" customWidth="1"/>
+    <col min="29" max="29" width="14.33203125" customWidth="1"/>
+    <col min="30" max="30" width="15.5546875" customWidth="1"/>
+    <col min="31" max="31" width="14.33203125" customWidth="1"/>
+    <col min="32" max="32" width="11.6640625" customWidth="1"/>
+    <col min="33" max="33" width="11.44140625" customWidth="1"/>
+    <col min="34" max="34" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="5">
+        <v>4134200028</v>
+      </c>
+      <c r="I2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" t="s">
         <v>63</v>
       </c>
-      <c r="B1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="Q2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2" t="s">
+        <v>65</v>
+      </c>
+      <c r="V2" t="s">
+        <v>65</v>
+      </c>
+      <c r="W2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="5">
+        <v>9600777038</v>
+      </c>
+      <c r="I3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S3" t="s">
+        <v>65</v>
+      </c>
+      <c r="T3" t="s">
+        <v>65</v>
+      </c>
+      <c r="U3" t="s">
+        <v>65</v>
+      </c>
+      <c r="V3" t="s">
+        <v>65</v>
+      </c>
+      <c r="W3" t="s">
+        <v>65</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="5">
+        <v>9489214332</v>
+      </c>
+      <c r="I4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" t="s">
         <v>58</v>
       </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>53</v>
-      </c>
-      <c r="P1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>52</v>
-      </c>
-      <c r="R1" t="s">
-        <v>51</v>
-      </c>
-      <c r="S1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T1" t="s">
-        <v>49</v>
-      </c>
-      <c r="U1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" t="s">
-        <v>47</v>
-      </c>
-      <c r="W1" t="s">
-        <v>46</v>
-      </c>
-      <c r="X1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>36</v>
+      <c r="L4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P4" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>64</v>
+      </c>
+      <c r="R4" t="s">
+        <v>65</v>
+      </c>
+      <c r="S4" t="s">
+        <v>65</v>
+      </c>
+      <c r="T4" t="s">
+        <v>65</v>
+      </c>
+      <c r="U4" t="s">
+        <v>65</v>
+      </c>
+      <c r="V4" t="s">
+        <v>64</v>
+      </c>
+      <c r="W4" t="s">
+        <v>65</v>
+      </c>
+      <c r="X4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" t="s">
-        <v>21</v>
-      </c>
-      <c r="T2" t="s">
-        <v>20</v>
-      </c>
-      <c r="U2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V2" t="s">
-        <v>20</v>
-      </c>
-      <c r="W2" t="s">
-        <v>21</v>
-      </c>
-      <c r="X2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>20</v>
-      </c>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2:H4" r:id="rId1" display="https://maps.google.com/?q=Villa+Shanti+Puducherry" xr:uid="{E9BD9353-500D-4D9A-9D19-8792FD96953B}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="11" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="44.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="18.21875" customWidth="1"/>
+    <col min="11" max="11" width="41.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -852,28 +1497,146 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>64</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="3">
+        <v>8940058500</v>
+      </c>
+      <c r="E3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4132221191</v>
+      </c>
+      <c r="E4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{CACEBE44-BD45-4CA6-BA3B-E206A1F2F70C}"/>
+    <hyperlink ref="K2" r:id="rId2" xr:uid="{B375A6FF-C71D-4D3F-BF7C-820E86E974AF}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{430073BE-ED06-45C9-8A45-FC6F70C884A5}"/>
+    <hyperlink ref="K3" r:id="rId4" xr:uid="{806F75CF-9D36-47E1-AF2E-60CE8E2EF7BE}"/>
+    <hyperlink ref="C4" r:id="rId5" xr:uid="{F32220E7-E1D7-4FB1-83AD-E09E22D0A88F}"/>
+    <hyperlink ref="K4" r:id="rId6" xr:uid="{CFAA869D-1282-4B24-8DCB-EE98B9E63548}"/>
+    <hyperlink ref="D2:D4" r:id="rId7" display="81221 30066" xr:uid="{CB0B2DB2-87F3-49D8-9D8C-A07EA6C28F70}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="11" width="25.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="49.21875" style="2" customWidth="1"/>
+    <col min="4" max="10" width="25.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="40" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -905,28 +1668,153 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="3">
+        <v>9566079526</v>
+      </c>
+      <c r="E2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="3">
+        <v>9944850001</v>
+      </c>
+      <c r="E3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4132623778</v>
+      </c>
+      <c r="E4">
+        <v>4.8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{8CB65F10-6BE2-44AD-8BBC-75674A423D54}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{0C788F9A-363B-4029-B1F2-01DA97F8AC39}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{E09560BE-904E-4278-A6B2-CD1C7CE7F464}"/>
+    <hyperlink ref="D2:D4" r:id="rId4" display="Restraunts.xlsx" xr:uid="{1AAA0154-9D6E-4D6A-842E-102EED0C0A52}"/>
+    <hyperlink ref="K2:K4" r:id="rId5" display="https://maps.app.goo.gl/Tderr2grrR4fPACn7" xr:uid="{A676B441-FC58-4A7C-BCB0-64FE7F147584}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <ignoredErrors>
+    <ignoredError sqref="E2:E3" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="11" width="25.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="47.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.44140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -958,19 +1846,321 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I3" t="s">
+        <v>145</v>
+      </c>
+      <c r="J3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H4" t="s">
+        <v>142</v>
+      </c>
+      <c r="I4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J4" t="s">
+        <v>159</v>
+      </c>
+      <c r="K4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{4383067E-C54F-4589-8963-1111D1554026}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{96270574-F036-48C8-92A2-61EF9ED64594}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{ACF7FB0B-BB04-437E-BFD7-5272E5663935}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7128DA0-8E08-4631-A793-63AF3FBB0933}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="48.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" customWidth="1"/>
+    <col min="13" max="13" width="17.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s">
+        <v>162</v>
+      </c>
+      <c r="L1" t="s">
+        <v>163</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" t="s">
+        <v>171</v>
+      </c>
+      <c r="M2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H3" t="s">
+        <v>178</v>
+      </c>
+      <c r="I3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" t="s">
+        <v>179</v>
+      </c>
+      <c r="M3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H4" t="s">
+        <v>184</v>
+      </c>
+      <c r="I4" t="s">
+        <v>142</v>
+      </c>
+      <c r="J4" t="s">
+        <v>170</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>185</v>
+      </c>
+      <c r="M4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2:D4" r:id="rId1" display="https://maps.google.com/?q=Rock+Beach" xr:uid="{5F007B18-8B6A-4F2B-98BE-306A59C666DE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>